--- a/Data Management/SPEC/SDTM/DM.xlsx
+++ b/Data Management/SPEC/SDTM/DM.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OP1092\Data Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OP1092\Data Management\SPEC\SDTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6514B6B3-6917-4D86-81F7-EB4FB4D74177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC1E38-EA74-457A-B777-BA4ED2F78EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DM_IVM" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="DM_AVK" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="119">
   <si>
     <t>Dataset</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>All the referred variables are SDTM variables. Please note that for this calculation, only date part should  be used</t>
+  </si>
+  <si>
+    <t>The raw data should be assigned</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -535,6 +538,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -548,7 +560,43 @@
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal_KR-PH-R668AD1026-DM-Specification-wave3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -924,8 +972,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,6 +1860,964 @@
         <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="6">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="6">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -1863,16 +2869,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>